--- a/players_stats/Kevin Willis.xlsx
+++ b/players_stats/Kevin Willis.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1983-84</t>
+          <t>1984-85</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>82</v>
+      </c>
+      <c r="I2" t="n">
         <v>19</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>200</v>
+        <v>1785</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>322</v>
       </c>
       <c r="L2" t="n">
-        <v>58</v>
+        <v>690</v>
       </c>
       <c r="M2" t="n">
-        <v>0.431</v>
+        <v>0.467</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="Q2" t="n">
-        <v>25</v>
+        <v>320</v>
       </c>
       <c r="R2" t="n">
-        <v>57</v>
+        <v>681</v>
       </c>
       <c r="S2" t="n">
-        <v>0.439</v>
+        <v>0.47</v>
       </c>
       <c r="T2" t="n">
-        <v>0.431</v>
+        <v>0.468</v>
       </c>
       <c r="U2" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="V2" t="n">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7809999999999999</v>
+        <v>0.657</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>177</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>345</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>522</v>
       </c>
       <c r="AA2" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="AF2" t="n">
-        <v>75</v>
+        <v>765</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 213</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -676,7 +676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1984-85</t>
+          <t>1985-86</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>2300</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>419</v>
       </c>
       <c r="L3" t="n">
-        <v>134</v>
+        <v>811</v>
       </c>
       <c r="M3" t="n">
-        <v>0.433</v>
+        <v>0.517</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>58</v>
+        <v>419</v>
       </c>
       <c r="R3" t="n">
-        <v>129</v>
+        <v>805</v>
       </c>
       <c r="S3" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="T3" t="n">
-        <v>0.433</v>
+        <v>0.517</v>
       </c>
       <c r="U3" t="n">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="V3" t="n">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7340000000000001</v>
+        <v>0.654</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="Y3" t="n">
+        <v>461</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>704</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>66</v>
+      </c>
+      <c r="AC3" t="n">
         <v>44</v>
       </c>
-      <c r="Z3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>61</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
       <c r="AD3" t="n">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="AE3" t="n">
-        <v>86</v>
+        <v>294</v>
       </c>
       <c r="AF3" t="n">
-        <v>163</v>
+        <v>1010</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 213</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -804,11 +804,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>81</v>
+      </c>
+      <c r="I4" t="n">
+        <v>81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2626</v>
+      </c>
+      <c r="K4" t="n">
+        <v>538</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>537</v>
+      </c>
+      <c r="R4" t="n">
+        <v>999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5379999999999999</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="U4" t="n">
+        <v>227</v>
+      </c>
+      <c r="V4" t="n">
+        <v>320</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.7090000000000001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>321</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>528</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>849</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>62</v>
+      </c>
+      <c r="AB4" t="n">
         <v>65</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>703</v>
-      </c>
-      <c r="K4" t="n">
-        <v>132</v>
-      </c>
-      <c r="L4" t="n">
-        <v>296</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>132</v>
-      </c>
-      <c r="R4" t="n">
-        <v>289</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="U4" t="n">
-        <v>55</v>
-      </c>
-      <c r="V4" t="n">
-        <v>66</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="X4" t="n">
-        <v>47</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>83</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>66</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>45</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="AD4" t="n">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="AE4" t="n">
-        <v>154</v>
+        <v>313</v>
       </c>
       <c r="AF4" t="n">
-        <v>319</v>
+        <v>1304</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 213</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -928,11 +928,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -942,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="J5" t="n">
-        <v>1084</v>
+        <v>2091</v>
       </c>
       <c r="K5" t="n">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="L5" t="n">
-        <v>450</v>
+        <v>687</v>
       </c>
       <c r="M5" t="n">
-        <v>0.442</v>
+        <v>0.518</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>198</v>
+        <v>356</v>
       </c>
       <c r="R5" t="n">
-        <v>443</v>
+        <v>685</v>
       </c>
       <c r="S5" t="n">
-        <v>0.447</v>
+        <v>0.52</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4429999999999999</v>
+        <v>0.518</v>
       </c>
       <c r="U5" t="n">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="V5" t="n">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8440000000000001</v>
+        <v>0.649</v>
       </c>
       <c r="X5" t="n">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="Y5" t="n">
-        <v>66</v>
+        <v>312</v>
       </c>
       <c r="Z5" t="n">
-        <v>127</v>
+        <v>547</v>
       </c>
       <c r="AA5" t="n">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="AB5" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="AE5" t="n">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="AF5" t="n">
-        <v>502</v>
+        <v>871</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 213</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>1989-90</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1066,101 +1066,101 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J6" t="n">
-        <v>547</v>
+        <v>2273</v>
       </c>
       <c r="K6" t="n">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>805</v>
       </c>
       <c r="M6" t="n">
-        <v>0.405</v>
+        <v>0.519</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>0.167</v>
+        <v>0.286</v>
       </c>
       <c r="Q6" t="n">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="R6" t="n">
-        <v>194</v>
+        <v>798</v>
       </c>
       <c r="S6" t="n">
-        <v>0.412</v>
+        <v>0.521</v>
       </c>
       <c r="T6" t="n">
-        <v>0.408</v>
+        <v>0.52</v>
       </c>
       <c r="U6" t="n">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="V6" t="n">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="W6" t="n">
-        <v>0.78</v>
+        <v>0.6829999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>392</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>645</v>
       </c>
       <c r="AA6" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AB6" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="AC6" t="n">
+        <v>47</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>144</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>259</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1006</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ6" t="n">
         <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>52</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>91</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>209</v>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79 </t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ6" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1172,15 +1172,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>1990-91</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NJN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1190,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J7" t="n">
-        <v>433</v>
+        <v>2373</v>
       </c>
       <c r="K7" t="n">
-        <v>67</v>
+        <v>444</v>
       </c>
       <c r="L7" t="n">
-        <v>168</v>
+        <v>881</v>
       </c>
       <c r="M7" t="n">
-        <v>0.399</v>
+        <v>0.504</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P7" t="n">
-        <v>0.167</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="R7" t="n">
-        <v>162</v>
+        <v>871</v>
       </c>
       <c r="S7" t="n">
-        <v>0.407</v>
+        <v>0.505</v>
       </c>
       <c r="T7" t="n">
-        <v>0.402</v>
+        <v>0.506</v>
       </c>
       <c r="U7" t="n">
+        <v>159</v>
+      </c>
+      <c r="V7" t="n">
+        <v>238</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.6679999999999999</v>
+      </c>
+      <c r="X7" t="n">
+        <v>259</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>445</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>704</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>99</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC7" t="n">
         <v>40</v>
       </c>
-      <c r="V7" t="n">
-        <v>51</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.784</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
       <c r="AD7" t="n">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="AE7" t="n">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="AF7" t="n">
-        <v>175</v>
+        <v>1051</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 188</t>
+          <t xml:space="preserve"> 213</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 99 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1296,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1988-89</t>
+          <t>1991-92</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1314,99 +1314,101 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J8" t="n">
-        <v>114</v>
+        <v>2962</v>
       </c>
       <c r="K8" t="n">
-        <v>14</v>
+        <v>591</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>1224</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.483</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.162</v>
+      </c>
       <c r="Q8" t="n">
-        <v>14</v>
+        <v>585</v>
       </c>
       <c r="R8" t="n">
-        <v>32</v>
+        <v>1187</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.493</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.485</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="V8" t="n">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="W8" t="n">
-        <v>0.75</v>
+        <v>0.804</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>418</v>
       </c>
       <c r="Y8" t="n">
+        <v>840</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1258</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>173</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>72</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>54</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>223</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ8" t="n">
         <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79 </t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="9">
@@ -1418,113 +1420,2591 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>1992-93</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>80</v>
+      </c>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2878</v>
+      </c>
+      <c r="K9" t="n">
+        <v>616</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1218</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>609</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1189</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="U9" t="n">
+        <v>196</v>
+      </c>
+      <c r="V9" t="n">
+        <v>300</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="X9" t="n">
+        <v>335</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>693</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1028</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>165</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>68</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>213</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>264</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1993-94</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>31</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>80</v>
+      </c>
+      <c r="I10" t="n">
+        <v>80</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2867</v>
+      </c>
+      <c r="K10" t="n">
+        <v>627</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1257</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>24</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>618</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1233</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="U10" t="n">
+        <v>268</v>
+      </c>
+      <c r="V10" t="n">
+        <v>376</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="X10" t="n">
+        <v>335</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>628</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>963</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>79</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>188</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1531</v>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1994-95</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>32</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>67</v>
+      </c>
+      <c r="I11" t="n">
+        <v>63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2390</v>
+      </c>
+      <c r="K11" t="n">
+        <v>473</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1015</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.466</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>470</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="U11" t="n">
+        <v>205</v>
+      </c>
+      <c r="V11" t="n">
+        <v>297</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>227</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>505</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>732</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>162</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>215</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1994-95</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>32</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>89</v>
+      </c>
+      <c r="K12" t="n">
+        <v>16</v>
+      </c>
+      <c r="L12" t="n">
+        <v>41</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>16</v>
+      </c>
+      <c r="R12" t="n">
+        <v>40</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="U12" t="n">
+        <v>10</v>
+      </c>
+      <c r="V12" t="n">
+        <v>15</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1994-95</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>32</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>65</v>
+      </c>
+      <c r="I13" t="n">
+        <v>61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2301</v>
+      </c>
+      <c r="K13" t="n">
+        <v>457</v>
+      </c>
+      <c r="L13" t="n">
+        <v>974</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>454</v>
+      </c>
+      <c r="R13" t="n">
+        <v>960</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="U13" t="n">
+        <v>195</v>
+      </c>
+      <c r="V13" t="n">
+        <v>282</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="X13" t="n">
+        <v>217</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>479</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>696</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>59</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>155</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>208</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1112</v>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1995-96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>33</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>60</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2135</v>
+      </c>
+      <c r="K14" t="n">
+        <v>325</v>
+      </c>
+      <c r="L14" t="n">
+        <v>712</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>9</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>324</v>
+      </c>
+      <c r="R14" t="n">
+        <v>703</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="U14" t="n">
+        <v>143</v>
+      </c>
+      <c r="V14" t="n">
+        <v>202</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="X14" t="n">
+        <v>208</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>430</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>638</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>53</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>253</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>794</v>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1995-96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>33</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>47</v>
+      </c>
+      <c r="I15" t="n">
+        <v>42</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1357</v>
+      </c>
+      <c r="K15" t="n">
+        <v>195</v>
+      </c>
+      <c r="L15" t="n">
+        <v>412</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>195</v>
+      </c>
+      <c r="R15" t="n">
+        <v>407</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="U15" t="n">
+        <v>89</v>
+      </c>
+      <c r="V15" t="n">
+        <v>125</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="X15" t="n">
+        <v>134</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>286</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>420</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>99</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>158</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>479</v>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1995-96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>33</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>28</v>
+      </c>
+      <c r="I16" t="n">
+        <v>18</v>
+      </c>
+      <c r="J16" t="n">
+        <v>778</v>
+      </c>
+      <c r="K16" t="n">
+        <v>130</v>
+      </c>
+      <c r="L16" t="n">
+        <v>300</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>129</v>
+      </c>
+      <c r="R16" t="n">
+        <v>296</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="U16" t="n">
+        <v>54</v>
+      </c>
+      <c r="V16" t="n">
+        <v>77</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="X16" t="n">
+        <v>74</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>144</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>218</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>315</v>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1996-97</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>34</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1964</v>
+      </c>
+      <c r="K17" t="n">
+        <v>350</v>
+      </c>
+      <c r="L17" t="n">
+        <v>728</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>14</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>348</v>
+      </c>
+      <c r="R17" t="n">
+        <v>714</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="U17" t="n">
+        <v>140</v>
+      </c>
+      <c r="V17" t="n">
+        <v>202</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.6929999999999999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>146</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>415</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>561</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>119</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>216</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>842</v>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1997-98</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>35</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>81</v>
+      </c>
+      <c r="I18" t="n">
+        <v>74</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>531</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1041</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>530</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1034</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="U18" t="n">
+        <v>242</v>
+      </c>
+      <c r="V18" t="n">
+        <v>305</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.7929999999999999</v>
+      </c>
+      <c r="X18" t="n">
+        <v>232</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>447</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>679</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>170</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>235</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1305</v>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1998-99</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>36</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>42</v>
+      </c>
+      <c r="I19" t="n">
+        <v>38</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1216</v>
+      </c>
+      <c r="K19" t="n">
+        <v>187</v>
+      </c>
+      <c r="L19" t="n">
+        <v>447</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>187</v>
+      </c>
+      <c r="R19" t="n">
+        <v>445</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="U19" t="n">
+        <v>130</v>
+      </c>
+      <c r="V19" t="n">
+        <v>155</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.8390000000000001</v>
+      </c>
+      <c r="X19" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>241</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>86</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>134</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>504</v>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1999-00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>37</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>79</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1679</v>
+      </c>
+      <c r="K20" t="n">
+        <v>236</v>
+      </c>
+      <c r="L20" t="n">
+        <v>569</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>235</v>
+      </c>
+      <c r="R20" t="n">
+        <v>566</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="U20" t="n">
+        <v>131</v>
+      </c>
+      <c r="V20" t="n">
+        <v>164</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="X20" t="n">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>281</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>482</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>49</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>98</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>256</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>604</v>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>38</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>TOT</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>78</v>
+      </c>
+      <c r="I21" t="n">
+        <v>22</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1830</v>
+      </c>
+      <c r="K21" t="n">
+        <v>304</v>
+      </c>
+      <c r="L21" t="n">
+        <v>690</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>303</v>
+      </c>
+      <c r="R21" t="n">
+        <v>684</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.4429999999999999</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="U21" t="n">
+        <v>113</v>
+      </c>
+      <c r="V21" t="n">
+        <v>147</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="X21" t="n">
+        <v>177</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>355</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>532</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>57</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>52</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>216</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>722</v>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>38</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>35</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>771</v>
+      </c>
+      <c r="K22" t="n">
+        <v>124</v>
+      </c>
+      <c r="L22" t="n">
+        <v>269</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>124</v>
+      </c>
+      <c r="R22" t="n">
+        <v>267</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="U22" t="n">
+        <v>61</v>
+      </c>
+      <c r="V22" t="n">
+        <v>81</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="X22" t="n">
+        <v>68</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>155</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>223</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>309</v>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>38</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>43</v>
+      </c>
+      <c r="I23" t="n">
+        <v>13</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1059</v>
+      </c>
+      <c r="K23" t="n">
+        <v>180</v>
+      </c>
+      <c r="L23" t="n">
+        <v>421</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>179</v>
+      </c>
+      <c r="R23" t="n">
+        <v>417</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="U23" t="n">
+        <v>52</v>
+      </c>
+      <c r="V23" t="n">
+        <v>66</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.7879999999999999</v>
+      </c>
+      <c r="X23" t="n">
+        <v>109</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>309</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>47</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>138</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>413</v>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2001-02</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>39</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>52</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>865</v>
+      </c>
+      <c r="K24" t="n">
+        <v>125</v>
+      </c>
+      <c r="L24" t="n">
+        <v>284</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>125</v>
+      </c>
+      <c r="R24" t="n">
+        <v>283</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U24" t="n">
+        <v>65</v>
+      </c>
+      <c r="V24" t="n">
+        <v>87</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="X24" t="n">
+        <v>105</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>194</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>299</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>98</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>315</v>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2002-03</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>40</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>71</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>840</v>
+      </c>
+      <c r="K25" t="n">
+        <v>123</v>
+      </c>
+      <c r="L25" t="n">
+        <v>257</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>123</v>
+      </c>
+      <c r="R25" t="n">
+        <v>255</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="U25" t="n">
+        <v>51</v>
+      </c>
+      <c r="V25" t="n">
+        <v>83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="X25" t="n">
+        <v>83</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>143</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>226</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>297</v>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2003-04</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>41</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>373</v>
+      </c>
+      <c r="K26" t="n">
+        <v>70</v>
+      </c>
+      <c r="L26" t="n">
+        <v>150</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>70</v>
+      </c>
+      <c r="R26" t="n">
+        <v>149</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="U26" t="n">
+        <v>24</v>
+      </c>
+      <c r="V26" t="n">
+        <v>39</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="X26" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>61</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>164</v>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2004-05</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>42</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>29</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>344</v>
+      </c>
+      <c r="K27" t="n">
+        <v>35</v>
+      </c>
+      <c r="L27" t="n">
+        <v>90</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>35</v>
+      </c>
+      <c r="R27" t="n">
+        <v>88</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="U27" t="n">
+        <v>17</v>
+      </c>
+      <c r="V27" t="n">
+        <v>23</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.7390000000000001</v>
+      </c>
+      <c r="X27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>53</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>87</v>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2006-07</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>44</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>43</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>13</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>13</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>260</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2947</v>
-      </c>
-      <c r="K9" t="n">
-        <v>495</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1138</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>26</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>493</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1112</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.4429999999999999</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.436</v>
-      </c>
-      <c r="U9" t="n">
-        <v>276</v>
-      </c>
-      <c r="V9" t="n">
-        <v>343</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="X9" t="n">
-        <v>159</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>197</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>356</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>319</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>167</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>254</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>580</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1268</v>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 188</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79 </t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1424</v>
+      </c>
+      <c r="I29" t="n">
+        <v>891</v>
+      </c>
+      <c r="J29" t="n">
+        <v>38362</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7095</v>
+      </c>
+      <c r="L29" t="n">
+        <v>14572</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="N29" t="n">
+        <v>40</v>
+      </c>
+      <c r="O29" t="n">
+        <v>190</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>7055</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14382</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3023</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4238</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4132</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7769</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>11901</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1328</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>958</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>750</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2520</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>4172</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17253</v>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 213</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ9" t="n">
-        <v>46</v>
+      <c r="AJ29" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
